--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_269.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_269.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:39.580000', '0:00:48.900000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1583850931677019</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['B', 'E:min', 'E:min/b7', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['A', 'D:min', 'D:min/b7', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:01:46.448253', '0:01:51.022585')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:41.144081', '0:00:44.232335')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4155405405405406</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>isophonics_277</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.07542372881355933</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['F', 'C', 'G']]</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.07307692307692308</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B'], ['D', 'A', 'E']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018), (8.342335, 11.17517)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616), (26.43068, 30.749591)]</t>
+          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
@@ -798,407 +818,370 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1256648936170213</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1093350383631713</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['C', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:55.935192', '0:01:02.158140')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4033613445378151</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(133.78, 135.34)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.42, 5.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.76, 12.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
